--- a/tests/advanced/randomized_tests/b07.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b07.stpprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,6 +32,9 @@
     <t>S*-MM0</t>
   </si>
   <si>
+    <t>S*-unmerged</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -438,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +481,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,18 +508,24 @@
         <v>141</v>
       </c>
       <c r="G2">
+        <v>141</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -518,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,36 +544,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -564,28 +582,28 @@
         <v>58</v>
       </c>
       <c r="D2">
-        <v>0.0007722786394879222</v>
+        <v>0.0001062355004251003</v>
       </c>
       <c r="E2">
-        <v>0.1698250640183687</v>
+        <v>0.02906543994322419</v>
       </c>
       <c r="F2">
         <v>58</v>
       </c>
       <c r="G2">
-        <v>0.01363366469740868</v>
+        <v>0.003428105264902115</v>
       </c>
       <c r="H2">
-        <v>0.04097684263251722</v>
+        <v>0.005221989937126637</v>
       </c>
       <c r="I2">
-        <v>0.02551253512501717</v>
+        <v>0.004946233239024878</v>
       </c>
       <c r="J2">
-        <v>0.07499502995051444</v>
+        <v>0.01074812281876802</v>
       </c>
       <c r="K2">
-        <v>0.003687804914079607</v>
+        <v>0.00130230700597167</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -594,31 +612,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>0.05814701435156167</v>
+        <v>0.001255751121789217</v>
       </c>
       <c r="E3">
-        <v>0.3580645230831578</v>
+        <v>0.02114645065739751</v>
       </c>
       <c r="F3">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="G3">
-        <v>0.0214330826420337</v>
+        <v>0.002091515343636274</v>
       </c>
       <c r="H3">
-        <v>0.09944771195296198</v>
+        <v>0.004581128712743521</v>
       </c>
       <c r="I3">
-        <v>0.1107752504758537</v>
+        <v>0.003499050159007311</v>
       </c>
       <c r="J3">
-        <v>0.09595014108344913</v>
+        <v>0.008156916592270136</v>
       </c>
       <c r="K3">
-        <v>0.007622348144650459</v>
+        <v>0.0007926160469651222</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,28 +648,28 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>0.03122887306381017</v>
+        <v>0.002126702573150396</v>
       </c>
       <c r="E4">
-        <v>0.2775818629888818</v>
+        <v>0.03207659209147096</v>
       </c>
       <c r="F4">
         <v>58</v>
       </c>
       <c r="G4">
-        <v>0.01475120161194354</v>
+        <v>0.003157577011734247</v>
       </c>
       <c r="H4">
-        <v>0.05472220596857369</v>
+        <v>0.007013775408267975</v>
       </c>
       <c r="I4">
-        <v>0.07210826792288572</v>
+        <v>0.005517114885151386</v>
       </c>
       <c r="J4">
-        <v>0.1188086854526773</v>
+        <v>0.01198764285072684</v>
       </c>
       <c r="K4">
-        <v>0.004227167810313404</v>
+        <v>0.001156458631157875</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,192 +681,258 @@
         <v>58</v>
       </c>
       <c r="D5">
-        <v>0.001330571714788675</v>
+        <v>0.0001610321924090385</v>
       </c>
       <c r="E5">
-        <v>0.1812401429051533</v>
+        <v>0.02473008818924427</v>
       </c>
       <c r="F5">
         <v>58</v>
       </c>
       <c r="G5">
-        <v>0.01371374272275716</v>
+        <v>0.002894910518079996</v>
       </c>
       <c r="H5">
-        <v>0.02416938205715269</v>
+        <v>0.004614257253706455</v>
       </c>
       <c r="I5">
-        <v>0.0403839151840657</v>
+        <v>0.004969678353518248</v>
       </c>
       <c r="J5">
-        <v>0.08651643909979612</v>
+        <v>0.008209006860852242</v>
       </c>
       <c r="K5">
-        <v>0.004096682765521109</v>
+        <v>0.001077517401427031</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>126</v>
+      </c>
+      <c r="D6">
+        <v>0.002120027784258127</v>
+      </c>
+      <c r="E6">
+        <v>0.06672624731436372</v>
+      </c>
+      <c r="F6">
+        <v>126</v>
+      </c>
+      <c r="G6">
+        <v>0.004351237323135138</v>
+      </c>
+      <c r="H6">
+        <v>0.009801749140024185</v>
+      </c>
+      <c r="I6">
+        <v>0.034101368393749</v>
+      </c>
+      <c r="J6">
+        <v>0.01174131548032165</v>
+      </c>
+      <c r="K6">
+        <v>0.001956654246896505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>975</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.02039748523384333</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>58</v>
-      </c>
-      <c r="D7">
-        <v>0.0007722786394879222</v>
-      </c>
-      <c r="E7">
-        <v>0.1698250640183687</v>
-      </c>
-      <c r="F7">
-        <v>58</v>
-      </c>
-      <c r="G7">
-        <v>0.01363366469740868</v>
-      </c>
-      <c r="H7">
-        <v>0.04097684263251722</v>
-      </c>
-      <c r="I7">
-        <v>0.02551253512501717</v>
-      </c>
-      <c r="J7">
-        <v>0.07499502995051444</v>
-      </c>
-      <c r="K7">
-        <v>0.003687804914079607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>0.05814701435156167</v>
+        <v>0.0001062355004251003</v>
       </c>
       <c r="E8">
-        <v>0.3580645230831578</v>
+        <v>0.02906543994322419</v>
       </c>
       <c r="F8">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="G8">
-        <v>0.0214330826420337</v>
+        <v>0.003428105264902115</v>
       </c>
       <c r="H8">
-        <v>0.09944771195296198</v>
+        <v>0.005221989937126637</v>
       </c>
       <c r="I8">
-        <v>0.1107752504758537</v>
+        <v>0.004946233239024878</v>
       </c>
       <c r="J8">
-        <v>0.09595014108344913</v>
+        <v>0.01074812281876802</v>
       </c>
       <c r="K8">
-        <v>0.007622348144650459</v>
+        <v>0.00130230700597167</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>58</v>
       </c>
       <c r="D9">
-        <v>0.03122887306381017</v>
+        <v>0.001255751121789217</v>
       </c>
       <c r="E9">
-        <v>0.2775818629888818</v>
+        <v>0.02114645065739751</v>
       </c>
       <c r="F9">
         <v>58</v>
       </c>
       <c r="G9">
-        <v>0.01475120161194354</v>
+        <v>0.002091515343636274</v>
       </c>
       <c r="H9">
-        <v>0.05472220596857369</v>
+        <v>0.004581128712743521</v>
       </c>
       <c r="I9">
-        <v>0.07210826792288572</v>
+        <v>0.003499050159007311</v>
       </c>
       <c r="J9">
-        <v>0.1188086854526773</v>
+        <v>0.008156916592270136</v>
       </c>
       <c r="K9">
-        <v>0.004227167810313404</v>
+        <v>0.0007926160469651222</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>58</v>
       </c>
       <c r="D10">
-        <v>0.001330571714788675</v>
+        <v>0.002126702573150396</v>
       </c>
       <c r="E10">
-        <v>0.1812401429051533</v>
+        <v>0.03207659209147096</v>
       </c>
       <c r="F10">
         <v>58</v>
       </c>
       <c r="G10">
-        <v>0.01371374272275716</v>
+        <v>0.003157577011734247</v>
       </c>
       <c r="H10">
-        <v>0.02416938205715269</v>
+        <v>0.007013775408267975</v>
       </c>
       <c r="I10">
-        <v>0.0403839151840657</v>
+        <v>0.005517114885151386</v>
       </c>
       <c r="J10">
-        <v>0.08651643909979612</v>
+        <v>0.01198764285072684</v>
       </c>
       <c r="K10">
-        <v>0.004096682765521109</v>
+        <v>0.001156458631157875</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>0.0001610321924090385</v>
+      </c>
+      <c r="E11">
+        <v>0.02473008818924427</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>0.002894910518079996</v>
+      </c>
+      <c r="H11">
+        <v>0.004614257253706455</v>
+      </c>
+      <c r="I11">
+        <v>0.004969678353518248</v>
+      </c>
+      <c r="J11">
+        <v>0.008209006860852242</v>
+      </c>
+      <c r="K11">
+        <v>0.001077517401427031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>126</v>
+      </c>
+      <c r="D12">
+        <v>0.002120027784258127</v>
+      </c>
+      <c r="E12">
+        <v>0.06672624731436372</v>
+      </c>
+      <c r="F12">
+        <v>126</v>
+      </c>
+      <c r="G12">
+        <v>0.004351237323135138</v>
+      </c>
+      <c r="H12">
+        <v>0.009801749140024185</v>
+      </c>
+      <c r="I12">
+        <v>0.034101368393749</v>
+      </c>
+      <c r="J12">
+        <v>0.01174131548032165</v>
+      </c>
+      <c r="K12">
+        <v>0.001956654246896505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>975</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.02039748523384333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b07.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b07.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>58</v>
       </c>
       <c r="D2">
-        <v>0.0001062355004251003</v>
+        <v>0.0001166416332125664</v>
       </c>
       <c r="E2">
-        <v>0.02906543994322419</v>
+        <v>0.02368199406191707</v>
       </c>
       <c r="F2">
         <v>58</v>
       </c>
       <c r="G2">
-        <v>0.003428105264902115</v>
+        <v>0.002142526209354401</v>
       </c>
       <c r="H2">
-        <v>0.005221989937126637</v>
+        <v>0.004305607173591852</v>
       </c>
       <c r="I2">
-        <v>0.004946233239024878</v>
+        <v>0.006701538804918528</v>
       </c>
       <c r="J2">
-        <v>0.01074812281876802</v>
+        <v>0.00773677509278059</v>
       </c>
       <c r="K2">
-        <v>0.00130230700597167</v>
+        <v>0.0008141938596963882</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>58</v>
       </c>
       <c r="D3">
-        <v>0.001255751121789217</v>
+        <v>0.001934067811816931</v>
       </c>
       <c r="E3">
-        <v>0.02114645065739751</v>
+        <v>0.04129076423123479</v>
       </c>
       <c r="F3">
         <v>58</v>
       </c>
       <c r="G3">
-        <v>0.002091515343636274</v>
+        <v>0.003354869317263365</v>
       </c>
       <c r="H3">
-        <v>0.004581128712743521</v>
+        <v>0.00815568258985877</v>
       </c>
       <c r="I3">
-        <v>0.003499050159007311</v>
+        <v>0.01121511589735746</v>
       </c>
       <c r="J3">
-        <v>0.008156916592270136</v>
+        <v>0.01424442138522863</v>
       </c>
       <c r="K3">
-        <v>0.0007926160469651222</v>
+        <v>0.001158212311565876</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>0.002126702573150396</v>
+        <v>0.001282183919101954</v>
       </c>
       <c r="E4">
-        <v>0.03207659209147096</v>
+        <v>0.02711975574493408</v>
       </c>
       <c r="F4">
         <v>58</v>
       </c>
       <c r="G4">
-        <v>0.003157577011734247</v>
+        <v>0.002319199033081532</v>
       </c>
       <c r="H4">
-        <v>0.007013775408267975</v>
+        <v>0.005797430407255888</v>
       </c>
       <c r="I4">
-        <v>0.005517114885151386</v>
+        <v>0.007305567618459463</v>
       </c>
       <c r="J4">
-        <v>0.01198764285072684</v>
+        <v>0.008808217477053404</v>
       </c>
       <c r="K4">
-        <v>0.001156458631157875</v>
+        <v>0.0008208919316530228</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>58</v>
       </c>
       <c r="D5">
-        <v>0.0001610321924090385</v>
+        <v>0.0002371198497712612</v>
       </c>
       <c r="E5">
-        <v>0.02473008818924427</v>
+        <v>0.03868278302252293</v>
       </c>
       <c r="F5">
         <v>58</v>
       </c>
       <c r="G5">
-        <v>0.002894910518079996</v>
+        <v>0.003496135585010052</v>
       </c>
       <c r="H5">
-        <v>0.004614257253706455</v>
+        <v>0.006414067465811968</v>
       </c>
       <c r="I5">
-        <v>0.004969678353518248</v>
+        <v>0.01141877472400665</v>
       </c>
       <c r="J5">
-        <v>0.008209006860852242</v>
+        <v>0.01256203791126609</v>
       </c>
       <c r="K5">
-        <v>0.001077517401427031</v>
+        <v>0.001280766911804676</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>126</v>
       </c>
       <c r="D6">
-        <v>0.002120027784258127</v>
+        <v>0.002026084810495377</v>
       </c>
       <c r="E6">
-        <v>0.06672624731436372</v>
+        <v>0.1067334790714085</v>
       </c>
       <c r="F6">
         <v>126</v>
       </c>
       <c r="G6">
-        <v>0.004351237323135138</v>
+        <v>0.00498313782736659</v>
       </c>
       <c r="H6">
-        <v>0.009801749140024185</v>
+        <v>0.01134592154994607</v>
       </c>
       <c r="I6">
-        <v>0.034101368393749</v>
+        <v>0.07334384554997087</v>
       </c>
       <c r="J6">
-        <v>0.01174131548032165</v>
+        <v>0.01039956882596016</v>
       </c>
       <c r="K6">
-        <v>0.001956654246896505</v>
+        <v>0.00189187889918685</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>58</v>
       </c>
       <c r="D8">
-        <v>0.0001062355004251003</v>
+        <v>0.0001166416332125664</v>
       </c>
       <c r="E8">
-        <v>0.02906543994322419</v>
+        <v>0.02368199406191707</v>
       </c>
       <c r="F8">
         <v>58</v>
       </c>
       <c r="G8">
-        <v>0.003428105264902115</v>
+        <v>0.002142526209354401</v>
       </c>
       <c r="H8">
-        <v>0.005221989937126637</v>
+        <v>0.004305607173591852</v>
       </c>
       <c r="I8">
-        <v>0.004946233239024878</v>
+        <v>0.006701538804918528</v>
       </c>
       <c r="J8">
-        <v>0.01074812281876802</v>
+        <v>0.00773677509278059</v>
       </c>
       <c r="K8">
-        <v>0.00130230700597167</v>
+        <v>0.0008141938596963882</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>58</v>
       </c>
       <c r="D9">
-        <v>0.001255751121789217</v>
+        <v>0.001934067811816931</v>
       </c>
       <c r="E9">
-        <v>0.02114645065739751</v>
+        <v>0.04129076423123479</v>
       </c>
       <c r="F9">
         <v>58</v>
       </c>
       <c r="G9">
-        <v>0.002091515343636274</v>
+        <v>0.003354869317263365</v>
       </c>
       <c r="H9">
-        <v>0.004581128712743521</v>
+        <v>0.00815568258985877</v>
       </c>
       <c r="I9">
-        <v>0.003499050159007311</v>
+        <v>0.01121511589735746</v>
       </c>
       <c r="J9">
-        <v>0.008156916592270136</v>
+        <v>0.01424442138522863</v>
       </c>
       <c r="K9">
-        <v>0.0007926160469651222</v>
+        <v>0.001158212311565876</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>58</v>
       </c>
       <c r="D10">
-        <v>0.002126702573150396</v>
+        <v>0.001282183919101954</v>
       </c>
       <c r="E10">
-        <v>0.03207659209147096</v>
+        <v>0.02711975574493408</v>
       </c>
       <c r="F10">
         <v>58</v>
       </c>
       <c r="G10">
-        <v>0.003157577011734247</v>
+        <v>0.002319199033081532</v>
       </c>
       <c r="H10">
-        <v>0.007013775408267975</v>
+        <v>0.005797430407255888</v>
       </c>
       <c r="I10">
-        <v>0.005517114885151386</v>
+        <v>0.007305567618459463</v>
       </c>
       <c r="J10">
-        <v>0.01198764285072684</v>
+        <v>0.008808217477053404</v>
       </c>
       <c r="K10">
-        <v>0.001156458631157875</v>
+        <v>0.0008208919316530228</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>58</v>
       </c>
       <c r="D11">
-        <v>0.0001610321924090385</v>
+        <v>0.0002371198497712612</v>
       </c>
       <c r="E11">
-        <v>0.02473008818924427</v>
+        <v>0.03868278302252293</v>
       </c>
       <c r="F11">
         <v>58</v>
       </c>
       <c r="G11">
-        <v>0.002894910518079996</v>
+        <v>0.003496135585010052</v>
       </c>
       <c r="H11">
-        <v>0.004614257253706455</v>
+        <v>0.006414067465811968</v>
       </c>
       <c r="I11">
-        <v>0.004969678353518248</v>
+        <v>0.01141877472400665</v>
       </c>
       <c r="J11">
-        <v>0.008209006860852242</v>
+        <v>0.01256203791126609</v>
       </c>
       <c r="K11">
-        <v>0.001077517401427031</v>
+        <v>0.001280766911804676</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>126</v>
       </c>
       <c r="D12">
-        <v>0.002120027784258127</v>
+        <v>0.002026084810495377</v>
       </c>
       <c r="E12">
-        <v>0.06672624731436372</v>
+        <v>0.1067334790714085</v>
       </c>
       <c r="F12">
         <v>126</v>
       </c>
       <c r="G12">
-        <v>0.004351237323135138</v>
+        <v>0.00498313782736659</v>
       </c>
       <c r="H12">
-        <v>0.009801749140024185</v>
+        <v>0.01134592154994607</v>
       </c>
       <c r="I12">
-        <v>0.034101368393749</v>
+        <v>0.07334384554997087</v>
       </c>
       <c r="J12">
-        <v>0.01174131548032165</v>
+        <v>0.01039956882596016</v>
       </c>
       <c r="K12">
-        <v>0.001956654246896505</v>
+        <v>0.00189187889918685</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b07.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b07.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>141</v>
       </c>
       <c r="D2">
-        <v>141</v>
-      </c>
-      <c r="E2">
-        <v>141</v>
-      </c>
-      <c r="F2">
-        <v>141</v>
-      </c>
-      <c r="G2">
-        <v>141</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="D2">
-        <v>0.0001166416332125664</v>
+        <v>0.003686540294438601</v>
       </c>
       <c r="E2">
-        <v>0.02368199406191707</v>
+        <v>0.0636335932649672</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="G2">
-        <v>0.002142526209354401</v>
+        <v>0.006474010180681944</v>
       </c>
       <c r="H2">
-        <v>0.004305607173591852</v>
+        <v>0.01344333915039897</v>
       </c>
       <c r="I2">
-        <v>0.006701538804918528</v>
+        <v>0.02207904914394021</v>
       </c>
       <c r="J2">
-        <v>0.00773677509278059</v>
+        <v>0.0118855289183557</v>
       </c>
       <c r="K2">
-        <v>0.0008141938596963882</v>
+        <v>0.003931539133191109</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>58</v>
-      </c>
-      <c r="D3">
-        <v>0.001934067811816931</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04129076423123479</v>
-      </c>
-      <c r="F3">
-        <v>58</v>
-      </c>
-      <c r="G3">
-        <v>0.003354869317263365</v>
-      </c>
-      <c r="H3">
-        <v>0.00815568258985877</v>
-      </c>
-      <c r="I3">
-        <v>0.01121511589735746</v>
-      </c>
-      <c r="J3">
-        <v>0.01424442138522863</v>
-      </c>
-      <c r="K3">
-        <v>0.001158212311565876</v>
+        <v>0.006342590786516666</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="D4">
-        <v>0.001282183919101954</v>
+        <v>0.003686540294438601</v>
       </c>
       <c r="E4">
-        <v>0.02711975574493408</v>
+        <v>0.0636335932649672</v>
       </c>
       <c r="F4">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="G4">
-        <v>0.002319199033081532</v>
+        <v>0.006474010180681944</v>
       </c>
       <c r="H4">
-        <v>0.005797430407255888</v>
+        <v>0.01344333915039897</v>
       </c>
       <c r="I4">
-        <v>0.007305567618459463</v>
+        <v>0.02207904914394021</v>
       </c>
       <c r="J4">
-        <v>0.008808217477053404</v>
+        <v>0.0118855289183557</v>
       </c>
       <c r="K4">
-        <v>0.0008208919316530228</v>
+        <v>0.003931539133191109</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>58</v>
-      </c>
-      <c r="D5">
-        <v>0.0002371198497712612</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03868278302252293</v>
-      </c>
-      <c r="F5">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>0.003496135585010052</v>
-      </c>
-      <c r="H5">
-        <v>0.006414067465811968</v>
-      </c>
-      <c r="I5">
-        <v>0.01141877472400665</v>
-      </c>
-      <c r="J5">
-        <v>0.01256203791126609</v>
-      </c>
-      <c r="K5">
-        <v>0.001280766911804676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>126</v>
-      </c>
-      <c r="D6">
-        <v>0.002026084810495377</v>
-      </c>
-      <c r="E6">
-        <v>0.1067334790714085</v>
-      </c>
-      <c r="F6">
-        <v>126</v>
-      </c>
-      <c r="G6">
-        <v>0.00498313782736659</v>
-      </c>
-      <c r="H6">
-        <v>0.01134592154994607</v>
-      </c>
-      <c r="I6">
-        <v>0.07334384554997087</v>
-      </c>
-      <c r="J6">
-        <v>0.01039956882596016</v>
-      </c>
-      <c r="K6">
-        <v>0.00189187889918685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>975</v>
-      </c>
-      <c r="E7">
-        <v>0.02039748523384333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>0.0001166416332125664</v>
-      </c>
-      <c r="E8">
-        <v>0.02368199406191707</v>
-      </c>
-      <c r="F8">
-        <v>58</v>
-      </c>
-      <c r="G8">
-        <v>0.002142526209354401</v>
-      </c>
-      <c r="H8">
-        <v>0.004305607173591852</v>
-      </c>
-      <c r="I8">
-        <v>0.006701538804918528</v>
-      </c>
-      <c r="J8">
-        <v>0.00773677509278059</v>
-      </c>
-      <c r="K8">
-        <v>0.0008141938596963882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>58</v>
-      </c>
-      <c r="D9">
-        <v>0.001934067811816931</v>
-      </c>
-      <c r="E9">
-        <v>0.04129076423123479</v>
-      </c>
-      <c r="F9">
-        <v>58</v>
-      </c>
-      <c r="G9">
-        <v>0.003354869317263365</v>
-      </c>
-      <c r="H9">
-        <v>0.00815568258985877</v>
-      </c>
-      <c r="I9">
-        <v>0.01121511589735746</v>
-      </c>
-      <c r="J9">
-        <v>0.01424442138522863</v>
-      </c>
-      <c r="K9">
-        <v>0.001158212311565876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>58</v>
-      </c>
-      <c r="D10">
-        <v>0.001282183919101954</v>
-      </c>
-      <c r="E10">
-        <v>0.02711975574493408</v>
-      </c>
-      <c r="F10">
-        <v>58</v>
-      </c>
-      <c r="G10">
-        <v>0.002319199033081532</v>
-      </c>
-      <c r="H10">
-        <v>0.005797430407255888</v>
-      </c>
-      <c r="I10">
-        <v>0.007305567618459463</v>
-      </c>
-      <c r="J10">
-        <v>0.008808217477053404</v>
-      </c>
-      <c r="K10">
-        <v>0.0008208919316530228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>58</v>
-      </c>
-      <c r="D11">
-        <v>0.0002371198497712612</v>
-      </c>
-      <c r="E11">
-        <v>0.03868278302252293</v>
-      </c>
-      <c r="F11">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>0.003496135585010052</v>
-      </c>
-      <c r="H11">
-        <v>0.006414067465811968</v>
-      </c>
-      <c r="I11">
-        <v>0.01141877472400665</v>
-      </c>
-      <c r="J11">
-        <v>0.01256203791126609</v>
-      </c>
-      <c r="K11">
-        <v>0.001280766911804676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>126</v>
-      </c>
-      <c r="D12">
-        <v>0.002026084810495377</v>
-      </c>
-      <c r="E12">
-        <v>0.1067334790714085</v>
-      </c>
-      <c r="F12">
-        <v>126</v>
-      </c>
-      <c r="G12">
-        <v>0.00498313782736659</v>
-      </c>
-      <c r="H12">
-        <v>0.01134592154994607</v>
-      </c>
-      <c r="I12">
-        <v>0.07334384554997087</v>
-      </c>
-      <c r="J12">
-        <v>0.01039956882596016</v>
-      </c>
-      <c r="K12">
-        <v>0.00189187889918685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>975</v>
-      </c>
-      <c r="E13">
-        <v>0.02039748523384333</v>
+        <v>0.006342590786516666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b07.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b07.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>141</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
+        <v>141</v>
+      </c>
+      <c r="E2">
+        <v>141</v>
+      </c>
+      <c r="F2">
+        <v>141</v>
+      </c>
+      <c r="G2">
+        <v>141</v>
+      </c>
+      <c r="H2">
+        <v>141</v>
+      </c>
+      <c r="I2">
+        <v>141</v>
+      </c>
+      <c r="J2">
+        <v>141</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>0.003686540294438601</v>
+        <v>0.0002742833457887173</v>
       </c>
       <c r="E2">
-        <v>0.0636335932649672</v>
+        <v>0.03213217109441757</v>
       </c>
       <c r="F2">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>0.006474010180681944</v>
+        <v>0.004100804682821035</v>
       </c>
       <c r="H2">
-        <v>0.01344333915039897</v>
+        <v>0.005733601283282042</v>
       </c>
       <c r="I2">
-        <v>0.02207904914394021</v>
+        <v>0.008123894687741995</v>
       </c>
       <c r="J2">
-        <v>0.0118855289183557</v>
+        <v>0.008278707973659039</v>
       </c>
       <c r="K2">
-        <v>0.003931539133191109</v>
+        <v>0.002363073639571667</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="D3">
+        <v>0.003631116822361946</v>
       </c>
       <c r="E3">
-        <v>0.006342590786516666</v>
+        <v>0.0603022682480514</v>
+      </c>
+      <c r="F3">
+        <v>128</v>
+      </c>
+      <c r="G3">
+        <v>0.006123892497271299</v>
+      </c>
+      <c r="H3">
+        <v>0.01275098836049438</v>
+      </c>
+      <c r="I3">
+        <v>0.02111532399430871</v>
+      </c>
+      <c r="J3">
+        <v>0.01094405632466078</v>
+      </c>
+      <c r="K3">
+        <v>0.003615155350416899</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>0.003686540294438601</v>
+        <v>0.001587348058819771</v>
       </c>
       <c r="E4">
-        <v>0.0636335932649672</v>
+        <v>0.03044654987752438</v>
       </c>
       <c r="F4">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>0.006474010180681944</v>
+        <v>0.003680920694023371</v>
       </c>
       <c r="H4">
-        <v>0.01344333915039897</v>
+        <v>0.006675757933408022</v>
       </c>
       <c r="I4">
-        <v>0.02207904914394021</v>
+        <v>0.007164041511714458</v>
       </c>
       <c r="J4">
-        <v>0.0118855289183557</v>
+        <v>0.008120690938085318</v>
       </c>
       <c r="K4">
-        <v>0.003931539133191109</v>
+        <v>0.001972903963178396</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>0.0002249758690595627</v>
       </c>
       <c r="E5">
+        <v>0.03478116309270263</v>
+      </c>
+      <c r="F5">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>0.004363694693893194</v>
+      </c>
+      <c r="H5">
+        <v>0.006212548818439245</v>
+      </c>
+      <c r="I5">
+        <v>0.009030910208821297</v>
+      </c>
+      <c r="J5">
+        <v>0.00882236659526825</v>
+      </c>
+      <c r="K5">
+        <v>0.002748323604464531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>126</v>
+      </c>
+      <c r="D6">
+        <v>0.0004963288083672523</v>
+      </c>
+      <c r="E6">
+        <v>0.06905272277072072</v>
+      </c>
+      <c r="F6">
+        <v>126</v>
+      </c>
+      <c r="G6">
+        <v>0.005743172019720078</v>
+      </c>
+      <c r="H6">
+        <v>0.009296332020312548</v>
+      </c>
+      <c r="I6">
+        <v>0.04056232422590256</v>
+      </c>
+      <c r="J6">
+        <v>0.00429024500772357</v>
+      </c>
+      <c r="K6">
+        <v>0.003990907222032547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>418</v>
+      </c>
+      <c r="D7">
+        <v>0.007661452982574701</v>
+      </c>
+      <c r="E7">
+        <v>0.2332312529906631</v>
+      </c>
+      <c r="F7">
+        <v>418</v>
+      </c>
+      <c r="G7">
+        <v>0.01758125005289912</v>
+      </c>
+      <c r="H7">
+        <v>0.03384288446977735</v>
+      </c>
+      <c r="I7">
+        <v>0.1413190765306354</v>
+      </c>
+      <c r="J7">
+        <v>0.01192303560674191</v>
+      </c>
+      <c r="K7">
+        <v>0.01182203320786357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>0.003764416556805372</v>
+      </c>
+      <c r="E8">
+        <v>0.08251043502241373</v>
+      </c>
+      <c r="F8">
+        <v>126</v>
+      </c>
+      <c r="G8">
+        <v>0.006625366862863302</v>
+      </c>
+      <c r="H8">
+        <v>0.01428531063720584</v>
+      </c>
+      <c r="I8">
+        <v>0.04278281424194574</v>
+      </c>
+      <c r="J8">
+        <v>0.008356308564543724</v>
+      </c>
+      <c r="K8">
+        <v>0.004350442439317703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>126</v>
+      </c>
+      <c r="D9">
+        <v>0.0006331512704491615</v>
+      </c>
+      <c r="E9">
+        <v>0.06665833992883563</v>
+      </c>
+      <c r="F9">
+        <v>126</v>
+      </c>
+      <c r="G9">
+        <v>0.005902842152863741</v>
+      </c>
+      <c r="H9">
+        <v>0.009291040245443583</v>
+      </c>
+      <c r="I9">
+        <v>0.03858753899112344</v>
+      </c>
+      <c r="J9">
+        <v>0.004149390384554863</v>
+      </c>
+      <c r="K9">
+        <v>0.003714930266141891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.006342590786516666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>0.0002742833457887173</v>
+      </c>
+      <c r="E11">
+        <v>0.03213217109441757</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>0.004100804682821035</v>
+      </c>
+      <c r="H11">
+        <v>0.005733601283282042</v>
+      </c>
+      <c r="I11">
+        <v>0.008123894687741995</v>
+      </c>
+      <c r="J11">
+        <v>0.008278707973659039</v>
+      </c>
+      <c r="K11">
+        <v>0.002363073639571667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>128</v>
+      </c>
+      <c r="D12">
+        <v>0.003631116822361946</v>
+      </c>
+      <c r="E12">
+        <v>0.0603022682480514</v>
+      </c>
+      <c r="F12">
+        <v>128</v>
+      </c>
+      <c r="G12">
+        <v>0.006123892497271299</v>
+      </c>
+      <c r="H12">
+        <v>0.01275098836049438</v>
+      </c>
+      <c r="I12">
+        <v>0.02111532399430871</v>
+      </c>
+      <c r="J12">
+        <v>0.01094405632466078</v>
+      </c>
+      <c r="K12">
+        <v>0.003615155350416899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>0.001587348058819771</v>
+      </c>
+      <c r="E13">
+        <v>0.03044654987752438</v>
+      </c>
+      <c r="F13">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>0.003680920694023371</v>
+      </c>
+      <c r="H13">
+        <v>0.006675757933408022</v>
+      </c>
+      <c r="I13">
+        <v>0.007164041511714458</v>
+      </c>
+      <c r="J13">
+        <v>0.008120690938085318</v>
+      </c>
+      <c r="K13">
+        <v>0.001972903963178396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>0.0002249758690595627</v>
+      </c>
+      <c r="E14">
+        <v>0.03478116309270263</v>
+      </c>
+      <c r="F14">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>0.004363694693893194</v>
+      </c>
+      <c r="H14">
+        <v>0.006212548818439245</v>
+      </c>
+      <c r="I14">
+        <v>0.009030910208821297</v>
+      </c>
+      <c r="J14">
+        <v>0.00882236659526825</v>
+      </c>
+      <c r="K14">
+        <v>0.002748323604464531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <v>0.0004963288083672523</v>
+      </c>
+      <c r="E15">
+        <v>0.06905272277072072</v>
+      </c>
+      <c r="F15">
+        <v>126</v>
+      </c>
+      <c r="G15">
+        <v>0.005743172019720078</v>
+      </c>
+      <c r="H15">
+        <v>0.009296332020312548</v>
+      </c>
+      <c r="I15">
+        <v>0.04056232422590256</v>
+      </c>
+      <c r="J15">
+        <v>0.00429024500772357</v>
+      </c>
+      <c r="K15">
+        <v>0.003990907222032547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>418</v>
+      </c>
+      <c r="D16">
+        <v>0.007661452982574701</v>
+      </c>
+      <c r="E16">
+        <v>0.2332312529906631</v>
+      </c>
+      <c r="F16">
+        <v>418</v>
+      </c>
+      <c r="G16">
+        <v>0.01758125005289912</v>
+      </c>
+      <c r="H16">
+        <v>0.03384288446977735</v>
+      </c>
+      <c r="I16">
+        <v>0.1413190765306354</v>
+      </c>
+      <c r="J16">
+        <v>0.01192303560674191</v>
+      </c>
+      <c r="K16">
+        <v>0.01182203320786357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>126</v>
+      </c>
+      <c r="D17">
+        <v>0.003764416556805372</v>
+      </c>
+      <c r="E17">
+        <v>0.08251043502241373</v>
+      </c>
+      <c r="F17">
+        <v>126</v>
+      </c>
+      <c r="G17">
+        <v>0.006625366862863302</v>
+      </c>
+      <c r="H17">
+        <v>0.01428531063720584</v>
+      </c>
+      <c r="I17">
+        <v>0.04278281424194574</v>
+      </c>
+      <c r="J17">
+        <v>0.008356308564543724</v>
+      </c>
+      <c r="K17">
+        <v>0.004350442439317703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>126</v>
+      </c>
+      <c r="D18">
+        <v>0.0006331512704491615</v>
+      </c>
+      <c r="E18">
+        <v>0.06665833992883563</v>
+      </c>
+      <c r="F18">
+        <v>126</v>
+      </c>
+      <c r="G18">
+        <v>0.005902842152863741</v>
+      </c>
+      <c r="H18">
+        <v>0.009291040245443583</v>
+      </c>
+      <c r="I18">
+        <v>0.03858753899112344</v>
+      </c>
+      <c r="J18">
+        <v>0.004149390384554863</v>
+      </c>
+      <c r="K18">
+        <v>0.003714930266141891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0.006342590786516666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
